--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints6.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints6.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.688991809864072e-06</v>
+        <v>1.696329920257508e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.686271519949937e-06</v>
+        <v>1.6940487051946e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.681299321766165e-06</v>
+        <v>1.689098270654582e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.674257687278559e-06</v>
+        <v>1.681708978605189e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.6653290884529e-06</v>
+        <v>1.672111191014134e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.654695997254977e-06</v>
+        <v>1.660535269849137e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.642540885650559e-06</v>
+        <v>1.6472115770779e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.629046225605469e-06</v>
+        <v>1.632370474668177e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.614394489085477e-06</v>
+        <v>1.616242324587671e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.598768148056351e-06</v>
+        <v>1.599057488804079e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.58234967448392e-06</v>
+        <v>1.581046329285166e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.565321540333951e-06</v>
+        <v>1.56243920799863e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.547866217572211e-06</v>
+        <v>1.543466486912165e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.530166178164531e-06</v>
+        <v>1.524358527993541e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.512403894076677e-06</v>
+        <v>1.505345693210452e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.494761837274438e-06</v>
+        <v>1.486658344530619e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.477422479723578e-06</v>
+        <v>1.468526843921738e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.460568293389931e-06</v>
+        <v>1.451181553351576e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.444377643481714e-06</v>
+        <v>1.434846260629109e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.428946309383199e-06</v>
+        <v>1.419612548944897e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.414293585640265e-06</v>
+        <v>1.405449563419685e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.400435882491645e-06</v>
+        <v>1.392321831932373e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.387389610176094e-06</v>
+        <v>1.380193882361878e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.37517117893235e-06</v>
+        <v>1.369030242587105e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.363796998999198e-06</v>
+        <v>1.358795440486999e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.353283480615377e-06</v>
+        <v>1.349454003940466e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.343647034019628e-06</v>
+        <v>1.340970460826411e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.33490406945073e-06</v>
+        <v>1.333309339023775e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.327070997147425e-06</v>
+        <v>1.326435166411466e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.320164227348466e-06</v>
+        <v>1.3203124708684e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.3142001702926e-06</v>
+        <v>1.314905780273489e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.309195236218596e-06</v>
+        <v>1.310179622505665e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.305165835365201e-06</v>
+        <v>1.30609852544384e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.302128377971164e-06</v>
+        <v>1.302627016966927e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.300074951574815e-06</v>
+        <v>1.299717466682597e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.29883485821806e-06</v>
+        <v>1.297240872056986e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.298170589275651e-06</v>
+        <v>1.295034833680079e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.297844432421178e-06</v>
+        <v>1.29293685031707e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.297618675328228e-06</v>
+        <v>1.290784420733148e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.297255605670388e-06</v>
+        <v>1.288415043693503e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.296517511121244e-06</v>
+        <v>1.28566621796332e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.295166679354387e-06</v>
+        <v>1.282375442307799e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.292965398043402e-06</v>
+        <v>1.278380215492126e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.289675954861873e-06</v>
+        <v>1.273518036281484e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.285060637483395e-06</v>
+        <v>1.267626403441076e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.278881733581553e-06</v>
+        <v>1.260542815736086e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.270901530829935e-06</v>
+        <v>1.252104771931707e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.260882316902113e-06</v>
+        <v>1.242149770793112e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.248586379471701e-06</v>
+        <v>1.230515311085519e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.233796899213001e-06</v>
+        <v>1.217051695704669e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.21656565684456e-06</v>
+        <v>1.20177383722018e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.197130773090464e-06</v>
+        <v>1.184810845381474e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.175734117007433e-06</v>
+        <v>1.166294127077603e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.152617557652174e-06</v>
+        <v>1.146355089197611e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.128022964081486e-06</v>
+        <v>1.125125138630625e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.102192205352081e-06</v>
+        <v>1.10273568226569e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.075367150520696e-06</v>
+        <v>1.079318126991878e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.047789668644034e-06</v>
+        <v>1.055003879698229e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.019701628778907e-06</v>
+        <v>1.02992434727388e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>9.913448999820194e-07</v>
+        <v>1.00421093660787e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>9.629613513100706e-07</v>
+        <v>9.779950545892366e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>9.347884707825633e-07</v>
+        <v>9.5140675065603e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>9.069560012982024e-07</v>
+        <v>9.245426897481157e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>8.794819132341226e-07</v>
+        <v>8.974649044293835e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>8.523789901098667e-07</v>
+        <v>8.70233820131642e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>8.25660015445082e-07</v>
+        <v>8.429098622868065e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>7.993377727593105e-07</v>
+        <v>8.15553456326686e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>7.73425045572096e-07</v>
+        <v>7.882250276830891e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>7.479346174030829e-07</v>
+        <v>7.609850017879312e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>7.228792717718151e-07</v>
+        <v>7.338938040730215e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>6.982717921978375e-07</v>
+        <v>7.070118599701686e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>6.74124962200792e-07</v>
+        <v>6.803995949112873e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>6.504515653002231e-07</v>
+        <v>6.541174343281869e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>6.272643850157083e-07</v>
+        <v>6.282258036527114e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>6.045762048667949e-07</v>
+        <v>6.027851283166717e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>5.823998083731206e-07</v>
+        <v>5.778558337519792e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>5.607479790542319e-07</v>
+        <v>5.534983453904445e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>5.396335004296788e-07</v>
+        <v>5.297730886638811e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>5.190691560190943e-07</v>
+        <v>5.067404890041957e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>4.990677293420272e-07</v>
+        <v>4.844609718432007e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>4.796420039180549e-07</v>
+        <v>4.629949626127406e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>4.608047632667305e-07</v>
+        <v>4.424028867446332e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>4.425687909076804e-07</v>
+        <v>4.227451696707767e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>4.24946870360457e-07</v>
+        <v>4.040822368229879e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>4.079517851446156e-07</v>
+        <v>3.864745136330887e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.915963187797781e-07</v>
+        <v>3.699824255329697e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.75893254785499e-07</v>
+        <v>3.546663979544511e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.60871578055957e-07</v>
+        <v>3.405827470438345e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.466444905432252e-07</v>
+        <v>3.277664282945568e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>3.333524728987257e-07</v>
+        <v>3.162454782831984e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.21136019769181e-07</v>
+        <v>3.060479300365327e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.101356258013189e-07</v>
+        <v>2.972018165813405e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>3.004917856419101e-07</v>
+        <v>2.897351709444362e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.923449939376808e-07</v>
+        <v>2.836760261525986e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.858357453353651e-07</v>
+        <v>2.790524152326139e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.811045344817218e-07</v>
+        <v>2.758923712112855e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.782918560234828e-07</v>
+        <v>2.742239271153976e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.775382046073894e-07</v>
+        <v>2.740751159717415e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.789840748801868e-07</v>
+        <v>2.754739708071115e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.827699614886127e-07</v>
+        <v>2.78448524648295e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.437762555761083e-06</v>
+        <v>1.424021086612335e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.929674933826458e-06</v>
+        <v>1.925850839144005e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.855779135703122e-06</v>
+        <v>1.834737603886048e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.839542486521403e-06</v>
+        <v>1.83137771064646e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.839635342264863e-06</v>
+        <v>1.850008651977137e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.830817478903249e-06</v>
+        <v>1.842851981059445e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.984117460497077e-06</v>
+        <v>1.98151004837668e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.601678598033782e-06</v>
+        <v>2.58414394109285e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.567294780125482e-06</v>
+        <v>3.55304097028334e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.96316982436573e-06</v>
+        <v>3.977376712283932e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>4.146463797944722e-06</v>
+        <v>4.177352773205291e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>4.313952799518388e-06</v>
+        <v>4.326143581638451e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>4.229811421255299e-06</v>
+        <v>4.194168961805969e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.967728492419151e-06</v>
+        <v>3.926741228748011e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>3.767671159813009e-06</v>
+        <v>3.835556239056549e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.681400644127548e-06</v>
+        <v>3.823330550536545e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.691148038546658e-06</v>
+        <v>3.759002207231868e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.774597871083276e-06</v>
+        <v>3.813968803265866e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.702962544233837e-06</v>
+        <v>3.713981235413657e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>3.546445388118334e-06</v>
+        <v>3.520401392203961e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>3.439670937096047e-06</v>
+        <v>3.434953472241517e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>3.309878017410914e-06</v>
+        <v>3.314250087148755e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>3.179523819831245e-06</v>
+        <v>3.186920193144731e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>3.075997603518832e-06</v>
+        <v>3.094548964661449e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.9905336688965e-06</v>
+        <v>3.021155218048243e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.910449554025757e-06</v>
+        <v>2.944521453738819e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.823286790722917e-06</v>
+        <v>2.844077756820429e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.718872373942662e-06</v>
+        <v>2.716064922111897e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.588369429618444e-06</v>
+        <v>2.566551647436913e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.423280472755245e-06</v>
+        <v>2.401714861605453e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>2.227647243928733e-06</v>
+        <v>2.227134167043284e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>2.021799635347286e-06</v>
+        <v>2.047613253607468e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.827156028781862e-06</v>
+        <v>1.867903959186393e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.662808569908021e-06</v>
+        <v>1.694011577358634e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.532508152251123e-06</v>
+        <v>1.540207793857231e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.433780333036032e-06</v>
+        <v>1.424040338320993e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.362262076597122e-06</v>
+        <v>1.352139963646995e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.309729106609553e-06</v>
+        <v>1.308587988736887e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.267678089932425e-06</v>
+        <v>1.275157065420843e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.231523337223272e-06</v>
+        <v>1.243068673627043e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.200272116211859e-06</v>
+        <v>1.212210020819516e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.173064672167384e-06</v>
+        <v>1.182789038340101e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.149041250359076e-06</v>
+        <v>1.155013657530676e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.127342096056133e-06</v>
+        <v>1.129091809733079e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.107139065399212e-06</v>
+        <v>1.105215642360541e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.088038274130445e-06</v>
+        <v>1.083360468482982e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.069961367411771e-06</v>
+        <v>1.063344051137379e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.052837093284893e-06</v>
+        <v>1.044980606753372e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.036594199791519e-06</v>
+        <v>1.028084351760604e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.021161434973374e-06</v>
+        <v>1.012469502588745e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.006467546872165e-06</v>
+        <v>9.979502756674359e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>9.924412835296046e-07</v>
+        <v>9.843408874263289e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>9.790113929873989e-07</v>
+        <v>9.714555542950697e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>9.661155002466607e-07</v>
+        <v>9.591324214103517e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>9.537352067694378e-07</v>
+        <v>9.473281767346744e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>9.418657071839127e-07</v>
+        <v>9.360361499313555e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>9.305022000977677e-07</v>
+        <v>9.252496813908133e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>9.196398841186688e-07</v>
+        <v>9.149621115034512e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>9.092739578542877e-07</v>
+        <v>9.051667806596772e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>8.993996199122913e-07</v>
+        <v>8.958570292498959e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>8.900120689003608e-07</v>
+        <v>8.87026197664524e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>8.811065034261626e-07</v>
+        <v>8.786676262939657e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>8.726781220973645e-07</v>
+        <v>8.707746555286255e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>8.647221235216459e-07</v>
+        <v>8.633406257589191e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>8.572337063066747e-07</v>
+        <v>8.563588773752516e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>8.502080690601221e-07</v>
+        <v>8.498227507680307e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>8.436404103896567e-07</v>
+        <v>8.437255863276625e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>8.375259289029563e-07</v>
+        <v>8.380607244445607e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>8.318598232076896e-07</v>
+        <v>8.328215055091311e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>8.266372919115254e-07</v>
+        <v>8.280012699117795e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>8.218535336221402e-07</v>
+        <v>8.235933580429191e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>8.175037469472032e-07</v>
+        <v>8.195911102929557e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>8.135831304943856e-07</v>
+        <v>8.159878670522979e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>8.100868828713579e-07</v>
+        <v>8.127769687113522e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>8.070102026857946e-07</v>
+        <v>8.099517556605304e-07</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>8.04348288545366e-07</v>
+        <v>8.075055682902393e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>8.020963390577424e-07</v>
+        <v>8.054317469908863e-07</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>8.002495528305971e-07</v>
+        <v>8.037236321528811e-07</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>7.988031284716009e-07</v>
+        <v>8.023745641666318e-07</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>7.977522645884254e-07</v>
+        <v>8.013778834225464e-07</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>7.970921597887419e-07</v>
+        <v>8.007269303110333e-07</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>7.968180126802226e-07</v>
+        <v>8.004150452225012e-07</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>7.969250218705386e-07</v>
+        <v>8.004355685473583e-07</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>7.974083859673616e-07</v>
+        <v>8.007818406760128e-07</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>7.982633035783634e-07</v>
+        <v>8.014472019988734e-07</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>7.994849733112149e-07</v>
+        <v>8.02424992906348e-07</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>8.010685937735882e-07</v>
+        <v>8.037085537888452e-07</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>8.030093616969877e-07</v>
+        <v>8.052912237388896e-07</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>8.052957701962048e-07</v>
+        <v>8.071617044603405e-07</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>8.078945522108798e-07</v>
+        <v>8.092936445306754e-07</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>8.107680331751239e-07</v>
+        <v>8.116576435290397e-07</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>8.138785385230454e-07</v>
+        <v>8.142243010345755e-07</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>8.171883936887554e-07</v>
+        <v>8.169642166264278e-07</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>8.206599241063648e-07</v>
+        <v>8.198479898837413e-07</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>8.242554552099855e-07</v>
+        <v>8.228462203856616e-07</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>8.279373124337243e-07</v>
+        <v>8.259295077113298e-07</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>8.316678212116937e-07</v>
+        <v>8.29068451439892e-07</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>8.354093069780038e-07</v>
+        <v>8.322336511504924e-07</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>8.391240951667667e-07</v>
+        <v>8.353957064222763e-07</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>8.427745112120895e-07</v>
+        <v>8.385252168343856e-07</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>8.46322880548084e-07</v>
+        <v>8.415927819659655e-07</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>8.497315286088626e-07</v>
+        <v>8.445690013961621e-07</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>8.529627808285322e-07</v>
+        <v>8.474244747041165e-07</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>8.559789626412047e-07</v>
+        <v>8.501298014689747e-07</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>8.587423994809909e-07</v>
+        <v>8.526555812698806e-07</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>8.61215416782002e-07</v>
+        <v>8.549724136859803e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>8.633603399783461e-07</v>
+        <v>8.570508982964146e-07</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>8.651394945041352e-07</v>
+        <v>8.5886163468033e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>8.665152057934796e-07</v>
+        <v>8.60375222416871e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>8.674497992804887e-07</v>
+        <v>8.615622610851803e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>8.679056003992736e-07</v>
+        <v>8.623933502644033e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>8.678449345839446e-07</v>
+        <v>8.628390895336838e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>8.672301272686122e-07</v>
+        <v>8.628700784721664e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>8.660235038873865e-07</v>
+        <v>8.624569166589952e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>8.64193347564748e-07</v>
+        <v>8.615720412709772e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>8.61739772584376e-07</v>
+        <v>8.601977075285093e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>8.586734804731471e-07</v>
+        <v>8.583194361948663e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>8.550051798878314e-07</v>
+        <v>8.559227502324767e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>8.507455794851996e-07</v>
+        <v>8.529931726037685e-07</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>8.459053879220202e-07</v>
+        <v>8.495162262711686e-07</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>8.404953138550692e-07</v>
+        <v>8.454774341971088e-07</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>8.345260659411147e-07</v>
+        <v>8.408623193440155e-07</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>8.28008352836925e-07</v>
+        <v>8.356564046743152e-07</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>8.209528831992763e-07</v>
+        <v>8.298452131504404e-07</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>8.133703656849373e-07</v>
+        <v>8.234142677348179e-07</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>8.05271508950679e-07</v>
+        <v>8.163490913898759e-07</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>7.966670216532679e-07</v>
+        <v>8.086352070780394e-07</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>7.875676124494826e-07</v>
+        <v>8.002581377617429e-07</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>7.779839899960908e-07</v>
+        <v>7.912034064034126e-07</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>7.679268629498584e-07</v>
+        <v>7.814565359654719e-07</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>7.574069399675653e-07</v>
+        <v>7.710030494103579e-07</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>7.464319077868202e-07</v>
+        <v>7.598295016310094e-07</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>7.34977352510032e-07</v>
+        <v>7.479334093043423e-07</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>7.229995033078777e-07</v>
+        <v>7.353188991479292e-07</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>7.104543224222952e-07</v>
+        <v>7.219901890306829e-07</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>6.972977720952051e-07</v>
+        <v>7.079514968214988e-07</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>6.834858145685344e-07</v>
+        <v>6.93207040389278e-07</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>6.68974412084203e-07</v>
+        <v>6.777610376029147e-07</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>6.537195268841502e-07</v>
+        <v>6.616177063313235e-07</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>6.376771212102967e-07</v>
+        <v>6.447812644433988e-07</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>6.208031573045609e-07</v>
+        <v>6.272559298080341e-07</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>6.030535974088851e-07</v>
+        <v>6.090459202941459e-07</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>5.84384403765188e-07</v>
+        <v>5.901554537706279e-07</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>5.647515386153872e-07</v>
+        <v>5.705887481063718e-07</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>5.441377039361158e-07</v>
+        <v>5.503724882644206e-07</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>5.228531538346444e-07</v>
+        <v>5.298085730285635e-07</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>5.014276777219515e-07</v>
+        <v>5.093833577746015e-07</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>4.803951111863355e-07</v>
+        <v>4.895865975323607e-07</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>4.602892898161229e-07</v>
+        <v>4.709080473316932e-07</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>4.416440491996113e-07</v>
+        <v>4.538374622024246e-07</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>4.249932249251082e-07</v>
+        <v>4.388645971743894e-07</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>4.10870652580915e-07</v>
+        <v>4.264792072774169e-07</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>3.998101677553521e-07</v>
+        <v>4.171710475413529e-07</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>3.923456060367197e-07</v>
+        <v>4.114298729960257e-07</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>3.890108030133248e-07</v>
+        <v>4.0974543867127e-07</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>3.903395942734779e-07</v>
+        <v>4.126074995969218e-07</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>3.968658154054838e-07</v>
+        <v>4.20505810802814e-07</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>4.090767792014236e-07</v>
+        <v>4.338835251661028e-07</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>4.267979391086475e-07</v>
+        <v>4.525208072499051e-07</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>4.493622204388303e-07</v>
+        <v>4.757044533497603e-07</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>4.760908216916914e-07</v>
+        <v>5.027095129461961e-07</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>5.063049413669581e-07</v>
+        <v>5.328110355197471e-07</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>5.393257779643164e-07</v>
+        <v>5.652840705509071e-07</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>5.744745299834914e-07</v>
+        <v>5.994036675202092e-07</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>6.110723959241969e-07</v>
+        <v>6.344448759081744e-07</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>6.484405742861623e-07</v>
+        <v>6.696827451953388e-07</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>6.859002635690666e-07</v>
+        <v>7.043923248621914e-07</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>7.227726622726397e-07</v>
+        <v>7.378486643892687e-07</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>7.583789688966102e-07</v>
+        <v>7.693268132571045e-07</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>7.920403819406585e-07</v>
+        <v>7.981018209461911e-07</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>8.230780999045146e-07</v>
+        <v>8.234487369370643e-07</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>8.508561508468499e-07</v>
+        <v>8.448007898249452e-07</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>8.753378907382477e-07</v>
+        <v>8.638046598684657e-07</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>8.969276810400219e-07</v>
+        <v>8.837357589733211e-07</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>9.160462194736344e-07</v>
+        <v>9.079066830153248e-07</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>9.363924424750216e-07</v>
+        <v>9.393129852024418e-07</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>9.701898926394176e-07</v>
+        <v>9.800562296467233e-07</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.020689953611008e-06</v>
+        <v>1.028300713265046e-06</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.07420031108413e-06</v>
+        <v>1.076014116808373e-06</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.117181306691062e-06</v>
+        <v>1.115421023872145e-06</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.145931650706691e-06</v>
+        <v>1.143499106827518e-06</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>1.160256285958968e-06</v>
+        <v>1.158919960605243e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>1.159964455014135e-06</v>
+        <v>1.160357257415188e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>1.145043520090487e-06</v>
+        <v>1.146698432416393e-06</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.1189931375205e-06</v>
+        <v>1.121046055591894e-06</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.088528315522825e-06</v>
+        <v>1.090361468788999e-06</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.060482648222118e-06</v>
+        <v>1.061748329835909e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.041689729743075e-06</v>
+        <v>1.042310296560862e-06</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.038983154210349e-06</v>
+        <v>1.039151026792057e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.059196515748607e-06</v>
+        <v>1.059374178357703e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.109163408482546e-06</v>
+        <v>1.110083409086042e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.195717426536793e-06</v>
+        <v>1.198382376805244e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.321359634662721e-06</v>
+        <v>1.326804928425436e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.438283716819339e-06</v>
+        <v>1.444822323578681e-06</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.482385451532121e-06</v>
+        <v>1.484617850772117e-06</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.469059838999455e-06</v>
+        <v>1.461744353498171e-06</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.437978018456531e-06</v>
+        <v>1.417273611347306e-06</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.410129430822394e-06</v>
+        <v>1.37491686470625e-06</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.382694438108619e-06</v>
+        <v>1.336258912924624e-06</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.351308490481498e-06</v>
+        <v>1.301448825688385e-06</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>1.311607634328775e-06</v>
+        <v>1.270635780160011e-06</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.262375732796667e-06</v>
+        <v>1.244536387660157e-06</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.212892329044437e-06</v>
+        <v>1.225759239827668e-06</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.174621804539019e-06</v>
+        <v>1.21730677329967e-06</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.159028540747349e-06</v>
+        <v>1.222181424713296e-06</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.176245984253241e-06</v>
+        <v>1.242759656362386e-06</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.218509079376183e-06</v>
+        <v>1.272999785263641e-06</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.265237936318835e-06</v>
+        <v>1.300832968523674e-06</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.295574177592587e-06</v>
+        <v>1.314059383024689e-06</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.29310996126276e-06</v>
+        <v>1.303102053622572e-06</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.260545052059053e-06</v>
+        <v>1.269644750495683e-06</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.205706065006109e-06</v>
+        <v>1.21839266646795e-06</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.136419677822455e-06</v>
+        <v>1.154051031310862e-06</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.060512565757467e-06</v>
+        <v>1.081325079888632e-06</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>9.855431722048113e-07</v>
+        <v>1.005473282922158e-06</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>9.180637147310043e-07</v>
+        <v>9.33829480615237e-07</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>8.643905052933909e-07</v>
+        <v>8.742140752221652e-07</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>8.308398558493513e-07</v>
+        <v>8.344474689972737e-07</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>8.232717335449832e-07</v>
+        <v>8.218311296001946e-07</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>8.403817149151766e-07</v>
+        <v>8.355195050550766e-07</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>8.751730871569305e-07</v>
+        <v>8.681940304637717e-07</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>9.204921043289711e-07</v>
+        <v>9.123575699748748e-07</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>9.691850204899591e-07</v>
+        <v>9.605129877369169e-07</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.014098089698618e-06</v>
+        <v>1.005163147898491e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.048077566013652e-06</v>
+        <v>1.03881091460817e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.063969703493767e-06</v>
+        <v>1.053959152014529e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.054651333180452e-06</v>
+        <v>1.043143048711043e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.016982089552055e-06</v>
+        <v>1.003108212322614e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>9.557138837528135e-07</v>
+        <v>9.389435675376617e-07</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>8.765277131855222e-07</v>
+        <v>8.567202222045032e-07</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>7.851045752528933e-07</v>
+        <v>7.625092841713691e-07</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>6.871254673576633e-07</v>
+        <v>6.623818612865155e-07</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>5.882713869025246e-07</v>
+        <v>5.624090613981539e-07</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>4.942233312903039e-07</v>
+        <v>4.686619923546316e-07</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>4.106622979236924e-07</v>
+        <v>3.872117620041589e-07</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>3.432573734289316e-07</v>
+        <v>3.241160957844834e-07</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>2.952146808102622e-07</v>
+        <v>2.826654444485904e-07</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>2.642753441403274e-07</v>
+        <v>2.6001003277924e-07</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>2.474456949606851e-07</v>
+        <v>2.524745058585164e-07</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>2.417320648128928e-07</v>
+        <v>2.563835087685074e-07</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>2.441407852385121e-07</v>
+        <v>2.680616865912926e-07</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>2.516781877790962e-07</v>
+        <v>2.838336844089557e-07</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>2.613506039762073e-07</v>
+        <v>3.000241473035876e-07</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>2.701643653713935e-07</v>
+        <v>3.129577203572569e-07</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>2.753044845362251e-07</v>
+        <v>3.191842603826135e-07</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>2.766735494952645e-07</v>
+        <v>3.186788891499945e-07</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>2.762888662418779e-07</v>
+        <v>3.140821445255291e-07</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>2.762234675335321e-07</v>
+        <v>3.081048030625864e-07</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>2.785503861276929e-07</v>
+        <v>3.034576413145295e-07</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>2.853426547818304e-07</v>
+        <v>3.028514358347239e-07</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>2.986733062534048e-07</v>
+        <v>3.089969631765353e-07</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>3.206153732998838e-07</v>
+        <v>3.246049998933267e-07</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>3.532418886787332e-07</v>
+        <v>3.523863225384625e-07</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>3.978520146815384e-07</v>
+        <v>3.941174313240834e-07</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>4.525534219339923e-07</v>
+        <v>4.477218106307542e-07</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>5.146311658964007e-07</v>
+        <v>5.101298201226361e-07</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>5.813703011869368e-07</v>
+        <v>5.78271818447207e-07</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>6.500558824238047e-07</v>
+        <v>6.490781642519775e-07</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>7.179729642251142e-07</v>
+        <v>7.194792161843603e-07</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>7.824066012090696e-07</v>
+        <v>7.864053328918656e-07</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>8.406418479938677e-07</v>
+        <v>8.467868730219964e-07</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>8.899895918986553e-07</v>
+        <v>8.97580833107593e-07</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>9.326057026888519e-07</v>
+        <v>9.407402063107285e-07</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>9.811610248697407e-07</v>
+        <v>9.890607037887122e-07</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.049704549657162e-06</v>
+        <v>1.056759139127374e-06</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.152285268267013e-06</v>
+        <v>1.158052325912603e-06</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.302952171915173e-06</v>
+        <v>1.307157077730267e-06</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.51575425181763e-06</v>
+        <v>1.518290208166346e-06</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.804740499190078e-06</v>
+        <v>1.805668530806523e-06</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.183959905248475e-06</v>
+        <v>2.183508859236747e-06</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.667156919351367e-06</v>
+        <v>2.665722370088004e-06</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.251015992170338e-06</v>
+        <v>3.249098895508021e-06</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.906453162582383e-06</v>
+        <v>3.904567195600084e-06</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>4.602244842871715e-06</v>
+        <v>4.600908710023154e-06</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>5.307167445322615e-06</v>
+        <v>5.306904878436259e-06</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>5.989997382218402e-06</v>
+        <v>5.991337140497472e-06</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>6.619511065843364e-06</v>
+        <v>6.622986935865827e-06</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>7.164484908481689e-06</v>
+        <v>7.170635704200262e-06</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>7.593695322416843e-06</v>
+        <v>7.603064885158992e-06</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>7.882041781816437e-06</v>
+        <v>7.895157514977652e-06</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>8.036469410577786e-06</v>
+        <v>8.053729938816634e-06</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>8.074371683668453e-06</v>
+        <v>8.096010224653472e-06</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>8.013147826131816e-06</v>
+        <v>8.03923217038375e-06</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>7.87019706301133e-06</v>
+        <v>7.900629573903143e-06</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>7.662918619350394e-06</v>
+        <v>7.697436233107266e-06</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>7.408711720192296e-06</v>
+        <v>7.446885945891622e-06</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>7.124975590580679e-06</v>
+        <v>7.166212510152066e-06</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>6.829109220453981e-06</v>
+        <v>6.872649492121623e-06</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>6.535360400476073e-06</v>
+        <v>6.580325398110896e-06</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>6.246925904092118e-06</v>
+        <v>6.292479524425703e-06</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>5.964581337150312e-06</v>
+        <v>6.00996545012081e-06</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>5.68910230549898e-06</v>
+        <v>5.733636754251126e-06</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>5.421264414986331e-06</v>
+        <v>5.464347015871429e-06</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>5.161843271460932e-06</v>
+        <v>5.202949814036864e-06</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>4.91161448077099e-06</v>
+        <v>4.950298727802212e-06</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>4.671353648764829e-06</v>
+        <v>4.707247336222375e-06</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>4.441836381290676e-06</v>
+        <v>4.474649218352154e-06</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>4.223838284197064e-06</v>
+        <v>4.25335795324666e-06</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>4.018134963332212e-06</v>
+        <v>4.044227119960686e-06</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>3.825502024544367e-06</v>
+        <v>3.848110297549053e-06</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>3.646715073682026e-06</v>
+        <v>3.665861065066838e-06</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>3.482549716593429e-06</v>
+        <v>3.498333001568851e-06</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>3.333781559126837e-06</v>
+        <v>3.346379686109933e-06</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>3.201186207130712e-06</v>
+        <v>3.21085469774512e-06</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>3.085539266453308e-06</v>
+        <v>3.092611615529244e-06</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>2.987431662003749e-06</v>
+        <v>2.992309353556735e-06</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>2.906220606616157e-06</v>
+        <v>2.909306418238674e-06</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>2.840757825194844e-06</v>
+        <v>2.842428500914378e-06</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.789893515499092e-06</v>
+        <v>2.790499683219273e-06</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.752477875288223e-06</v>
+        <v>2.752344046788826e-06</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>2.727361102321548e-06</v>
+        <v>2.726785673258498e-06</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>2.713393394358412e-06</v>
+        <v>2.712648644263777e-06</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>2.709424949158121e-06</v>
+        <v>2.708757041440116e-06</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>2.714305964480001e-06</v>
+        <v>2.713934946422988e-06</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>2.726886638083368e-06</v>
+        <v>2.727006440847854e-06</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.746017167727545e-06</v>
+        <v>2.746795606350183e-06</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.770547751171864e-06</v>
+        <v>2.772126524565454e-06</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.799328586175624e-06</v>
+        <v>2.801823277129112e-06</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.831209870498156e-06</v>
+        <v>2.834709945676634e-06</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.865041801898798e-06</v>
+        <v>2.869610611843503e-06</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.899674578136823e-06</v>
+        <v>2.90534935726514e-06</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.933958396971615e-06</v>
+        <v>2.940750263577074e-06</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.966743456162462e-06</v>
+        <v>2.974637412414741e-06</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.99687995346866e-06</v>
+        <v>3.00583488541358e-06</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>3.023218086649582e-06</v>
+        <v>3.033166764209112e-06</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>3.044608053464504e-06</v>
+        <v>3.055457130436758e-06</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>3.059900051672783e-06</v>
+        <v>3.071530065732025e-06</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>3.067944279033719e-06</v>
+        <v>3.080209651730353e-06</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>3.067590933306636e-06</v>
+        <v>3.080319970067216e-06</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>3.057690212250852e-06</v>
+        <v>3.070685102378079e-06</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>3.037092313625686e-06</v>
+        <v>3.050129130298404e-06</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>3.004759094136523e-06</v>
+        <v>3.017590265530424e-06</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.960954278973197e-06</v>
+        <v>2.973337399872192e-06</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.906783332236353e-06</v>
+        <v>2.918499792530505e-06</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.84336582917357e-06</v>
+        <v>2.854221126152461e-06</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>2.771821345032256e-06</v>
+        <v>2.781645083384976e-06</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>2.693269455059988e-06</v>
+        <v>2.701915346875139e-06</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>2.608829734504366e-06</v>
+        <v>2.616175599270066e-06</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>2.519621758612759e-06</v>
+        <v>2.525569523216636e-06</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>2.426765102632764e-06</v>
+        <v>2.431240801361959e-06</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>2.331379341811989e-06</v>
+        <v>2.334333116353158e-06</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.234584051397784e-06</v>
+        <v>2.235990150837093e-06</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.137498806637845e-06</v>
+        <v>2.137355587460973e-06</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.041243182779517e-06</v>
+        <v>2.039573108871655e-06</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.94693675507041e-06</v>
+        <v>1.943786397716263e-06</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.855699098758128e-06</v>
+        <v>1.851139136641914e-06</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.768649789090026e-06</v>
+        <v>1.762775008295474e-06</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.686908401313713e-06</v>
+        <v>1.679837695324066e-06</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.611572988001829e-06</v>
+        <v>1.603448869742563e-06</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.543119745668455e-06</v>
+        <v>1.534094248925644e-06</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.481323141385244e-06</v>
+        <v>1.471541911352395e-06</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.425920071712974e-06</v>
+        <v>1.415521513200799e-06</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.376647433212276e-06</v>
+        <v>1.365762710648691e-06</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.333242122443969e-06</v>
+        <v>1.321995159874096e-06</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.29544103596871e-06</v>
+        <v>1.283948517054873e-06</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.262981070347268e-06</v>
+        <v>1.251352438368998e-06</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.235599122140398e-06</v>
+        <v>1.22393657999443e-06</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.213032087908782e-06</v>
+        <v>1.201430598109057e-06</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.195016864213178e-06</v>
+        <v>1.183564148890838e-06</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.181290347614327e-06</v>
+        <v>1.170066888517723e-06</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.171589434672935e-06</v>
+        <v>1.160668473167621e-06</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.165651021949749e-06</v>
+        <v>1.155098559018483e-06</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.163212006005501e-06</v>
+        <v>1.153086802248245e-06</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.164009283400915e-06</v>
+        <v>1.154362859034839e-06</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.167779750696729e-06</v>
+        <v>1.158656385556203e-06</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.174260304453665e-06</v>
+        <v>1.165697037990268e-06</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.183187841232467e-06</v>
+        <v>1.17521447251498e-06</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.19429925759385e-06</v>
+        <v>1.186938345308259e-06</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.207331450098565e-06</v>
+        <v>1.200598312548062e-06</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.222021315307335e-06</v>
+        <v>1.215924030412316e-06</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.238105749780875e-06</v>
+        <v>1.23264515507894e-06</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.255321650079946e-06</v>
+        <v>1.250491342725901e-06</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.273405912765265e-06</v>
+        <v>1.269192249531119e-06</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.292095434397546e-06</v>
+        <v>1.288477531672513e-06</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.311127111537554e-06</v>
+        <v>1.308076845328054e-06</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.330237840746002e-06</v>
+        <v>1.32771984667566e-06</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.349164518583607e-06</v>
+        <v>1.347136191893249e-06</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.367644041611132e-06</v>
+        <v>1.366055537158793e-06</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.385413306389292e-06</v>
+        <v>1.384207538650209e-06</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.402209209478802e-06</v>
+        <v>1.401321852545419e-06</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.417768647440427e-06</v>
+        <v>1.417128135022389e-06</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.431828516834867e-06</v>
+        <v>1.431356042259027e-06</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.444125714222879e-06</v>
+        <v>1.443735230433295e-06</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.454448405440878e-06</v>
+        <v>1.454047431649743e-06</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.463368040597382e-06</v>
+        <v>1.462869986176491e-06</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.472067408556506e-06</v>
+        <v>1.471401191604534e-06</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.481745514802304e-06</v>
+        <v>1.480855817290826e-06</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.493601364818824e-06</v>
+        <v>1.492448632592318e-06</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.508833964090151e-06</v>
+        <v>1.50739440686599e-06</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.528642318100336e-06</v>
+        <v>1.526907909468797e-06</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.554225432333416e-06</v>
+        <v>1.552203909757674e-06</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.586782312273498e-06</v>
+        <v>1.584497177089629e-06</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.627511963404583e-06</v>
+        <v>1.625002480821563e-06</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.677613391210804e-06</v>
+        <v>1.67493459031051e-06</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.738285601176193e-06</v>
+        <v>1.7355082749134e-06</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.810727598784739e-06</v>
+        <v>1.807938303987124e-06</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.896138389520634e-06</v>
+        <v>1.893439446888774e-06</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.995716978867882e-06</v>
+        <v>1.993226472975251e-06</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>2.110662372310432e-06</v>
+        <v>2.108514151603408e-06</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>2.242173575332553e-06</v>
+        <v>2.240517252130413e-06</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>2.391449593418211e-06</v>
+        <v>2.390450543913132e-06</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>2.559689432051307e-06</v>
+        <v>2.559528796308364e-06</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>2.748092096716205e-06</v>
+        <v>2.748966778673377e-06</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.957856592896825e-06</v>
+        <v>2.95997926036499e-06</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>3.19018192607701e-06</v>
+        <v>3.193781010739942e-06</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>3.445661105179064e-06</v>
+        <v>3.45097625614254e-06</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>3.718370196131378e-06</v>
+        <v>3.725603386970303e-06</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>3.998418537744916e-06</v>
+        <v>4.007704306383861e-06</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>4.275859262017239e-06</v>
+        <v>4.28726428904238e-06</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>4.54074550094492e-06</v>
+        <v>4.554268609604028e-06</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>4.783130386525496e-06</v>
+        <v>4.798702542727945e-06</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>4.993067050755774e-06</v>
+        <v>5.010551363072535e-06</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>5.160608625632672e-06</v>
+        <v>5.179800345296317e-06</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>5.275808243153556e-06</v>
+        <v>5.296434764058257e-06</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>5.328719035315305e-06</v>
+        <v>5.350439894016831e-06</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>5.309394134115023e-06</v>
+        <v>5.331801009830745e-06</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>5.207886671549737e-06</v>
+        <v>5.230503386158622e-06</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>5.01424977961648e-06</v>
+        <v>5.036532297659098e-06</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>4.722020194375956e-06</v>
+        <v>4.743372554655945e-06</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>4.348680210924791e-06</v>
+        <v>4.368564036974623e-06</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>3.921778448203328e-06</v>
+        <v>3.939758984704295e-06</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>3.468898360267693e-06</v>
+        <v>3.4846446323617e-06</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>3.017623401175173e-06</v>
+        <v>3.03090821446473e-06</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>2.595537024983038e-06</v>
+        <v>2.606236965531272e-06</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>2.230222685747427e-06</v>
+        <v>2.238318120078073e-06</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.949263837525653e-06</v>
+        <v>1.954838912623056e-06</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.780243934374727e-06</v>
+        <v>1.783486577683847e-06</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.744402795035336e-06</v>
+        <v>1.745586786667769e-06</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.834010596867954e-06</v>
+        <v>1.833413698287433e-06</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>2.033072531353933e-06</v>
+        <v>2.030953127639543e-06</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>2.325593166295094e-06</v>
+        <v>2.322190264378674e-06</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>2.695577069492394e-06</v>
+        <v>2.691110298158546e-06</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>3.127028808747963e-06</v>
+        <v>3.121698418634048e-06</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>3.603952951862952e-06</v>
+        <v>3.59793981545909e-06</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>4.110354066638346e-06</v>
+        <v>4.10381967828742e-06</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>4.630236720876524e-06</v>
+        <v>4.623323196774173e-06</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>5.14760548237849e-06</v>
+        <v>5.140435560573116e-06</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>5.646464918945259e-06</v>
+        <v>5.639141959338026e-06</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>6.110819598379196e-06</v>
+        <v>6.103427582724021e-06</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>6.524674088481289e-06</v>
+        <v>6.517277620384854e-06</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>6.872032957052716e-06</v>
+        <v>6.864677261974462e-06</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>7.136900771895561e-06</v>
+        <v>7.12961169714769e-06</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>7.303282100810937e-06</v>
+        <v>7.296066115558409e-06</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>7.355181511600297e-06</v>
+        <v>7.348025706860834e-06</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>7.279920972510656e-06</v>
+        <v>7.272796220319093e-06</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>7.087062546543881e-06</v>
+        <v>7.079944679220602e-06</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>6.795310053231007e-06</v>
+        <v>6.788188569087466e-06</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>6.423395415712639e-06</v>
+        <v>6.416273505814458e-06</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>5.990050557130562e-06</v>
+        <v>5.982945105297529e-06</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>5.514007400625122e-06</v>
+        <v>5.506948983431193e-06</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>5.013997869337835e-06</v>
+        <v>5.007030756111134e-06</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>4.508753886410297e-06</v>
+        <v>4.501936039233116e-06</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>4.017007374982732e-06</v>
+        <v>4.010410448691532e-06</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>3.557490258196739e-06</v>
+        <v>3.551199600382148e-06</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>3.148922504458125e-06</v>
+        <v>3.143037137781037e-06</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>2.803402434180195e-06</v>
+        <v>2.798025261378662e-06</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.515422235555445e-06</v>
+        <v>2.510633995785427e-06</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.27658029603248e-06</v>
+        <v>2.272435284247918e-06</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.078475003059286e-06</v>
+        <v>2.075001070012102e-06</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.912704744084646e-06</v>
+        <v>1.909903296324742e-06</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.770867906556678e-06</v>
+        <v>1.768713906431939e-06</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.644589709266909e-06</v>
+        <v>1.643031771539513e-06</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.528160976987947e-06</v>
+        <v>1.527130967348542e-06</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.420763217754376e-06</v>
+        <v>1.42019386356161e-06</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.322101848410804e-06</v>
+        <v>1.321928625221503e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.231882285801807e-06</v>
+        <v>1.23204341737098e-06</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.149809946771722e-06</v>
+        <v>1.150246405052557e-06</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.075590248165134e-06</v>
+        <v>1.076245753308999e-06</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.008928606826599e-06</v>
+        <v>1.009749627183041e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>9.495304396004951e-07</v>
+        <v>9.504661917172433e-07</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>8.97101163331385e-07</v>
+        <v>8.981036119543483e-07</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>8.513461948638063e-07</v>
+        <v>8.523700529370737e-07</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>8.119709510421761e-07</v>
+        <v>8.129736797080165e-07</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>7.78680848711037e-07</v>
+        <v>7.796226573099002e-07</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>7.511813047149112e-07</v>
+        <v>7.520251507854265e-07</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>7.291777358982476e-07</v>
+        <v>7.298893251772251e-07</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>7.123755591055864e-07</v>
+        <v>7.129233455280161e-07</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>7.004801911813959e-07</v>
+        <v>7.008353768804479e-07</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>6.931970489701929e-07</v>
+        <v>6.933335842772181e-07</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>6.902315493164774e-07</v>
+        <v>6.901261327610064e-07</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>6.912891090647432e-07</v>
+        <v>6.909211873744869e-07</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>6.96075145059494e-07</v>
+        <v>6.954269131603436e-07</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>7.0429507414522e-07</v>
+        <v>7.033514751612471e-07</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>7.156543131664354e-07</v>
+        <v>7.144030384198915e-07</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>7.298582789676336e-07</v>
+        <v>7.282897679789506e-07</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>7.466123883932969e-07</v>
+        <v>7.44719828881087e-07</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>7.656220582879555e-07</v>
+        <v>7.63401386169011e-07</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>7.86592705496074e-07</v>
+        <v>7.840426048853676e-07</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>8.092297468621906e-07</v>
+        <v>8.063516500728749e-07</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>8.332385992307853e-07</v>
+        <v>8.300366867741932e-07</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>8.583246794463349e-07</v>
+        <v>8.548058800319799e-07</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>8.841934043533835e-07</v>
+        <v>8.803673948889589e-07</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>9.10550190796408e-07</v>
+        <v>9.064293963877874e-07</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>9.371004556198838e-07</v>
+        <v>9.327000495711214e-07</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>9.635496156683578e-07</v>
+        <v>9.588875194816875e-07</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>9.896030877863057e-07</v>
+        <v>9.846999711621419e-07</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.014966288818203e-06</v>
+        <v>1.009845569655141e-06</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.039344635608597e-06</v>
+        <v>1.03403248000341e-06</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.062443545001941e-06</v>
+        <v>1.056968867249585e-06</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.083968433842777e-06</v>
+        <v>1.078362896436387e-06</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.103624718975582e-06</v>
+        <v>1.097922732606475e-06</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.121117904631417e-06</v>
+        <v>1.115356627131613e-06</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.136244909815056e-06</v>
+        <v>1.130463139938444e-06</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.149067139593303e-06</v>
+        <v>1.143302116444724e-06</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.159693554175072e-06</v>
+        <v>1.153980381741039e-06</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.168233113769307e-06</v>
+        <v>1.162604760918005e-06</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.174794778584922e-06</v>
+        <v>1.169282079066207e-06</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.179487508830836e-06</v>
+        <v>1.174119161276235e-06</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.182420264715982e-06</v>
+        <v>1.177222832638695e-06</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.183702006449279e-06</v>
+        <v>1.178699918244176e-06</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.183441694239652e-06</v>
+        <v>1.178657243183276e-06</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.181748288296025e-06</v>
+        <v>1.177201632546589e-06</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.17873074882732e-06</v>
+        <v>1.174439911424711e-06</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.174498036042466e-06</v>
+        <v>1.17047890490824e-06</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.16915911015038e-06</v>
+        <v>1.165425438087765e-06</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.162822931359995e-06</v>
+        <v>1.159386336053891e-06</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.155598459880223e-06</v>
+        <v>1.152468423897202e-06</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.147594655919994e-06</v>
+        <v>1.144778526708298e-06</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.13892047968824e-06</v>
+        <v>1.136423469577784e-06</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.129684891393868e-06</v>
+        <v>1.127510077596239e-06</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.119996851245811e-06</v>
+        <v>1.118145175854266e-06</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.109965319453001e-06</v>
+        <v>1.108435589442469e-06</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.099699256224346e-06</v>
+        <v>1.098488143451427e-06</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.089307621768776e-06</v>
+        <v>1.088409662971743e-06</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.078899376295226e-06</v>
+        <v>1.078306973094023e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.068583480012601e-06</v>
+        <v>1.068286898908843e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.058468893129843e-06</v>
+        <v>1.058456265506817e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.048664575855858e-06</v>
+        <v>1.048921897978522e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.039279488399579e-06</v>
+        <v>1.039790621414563e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.030422590969938e-06</v>
+        <v>1.031169260905543e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.022202843775843e-06</v>
+        <v>1.023164641542042e-06</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.014729207026225e-06</v>
+        <v>1.015883588414664e-06</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.008110640930016e-06</v>
+        <v>1.009432926614008e-06</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.002456105696125e-06</v>
+        <v>1.00391948123066e-06</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>9.978745615334848e-07</v>
+        <v>9.994500773552212e-07</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>9.944749686510204e-07</v>
+        <v>9.961315400782889e-07</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>9.923662872576501e-07</v>
+        <v>9.940706944904525e-07</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>9.916574775623015e-07</v>
+        <v>9.933743656823119e-07</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>9.924574997738975e-07</v>
+        <v>9.941493787444606e-07</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>9.948753121105031e-07</v>
+        <v>9.965025568121503e-07</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>9.989627335752327e-07</v>
+        <v>1.000484603097452e-06</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.004565015835818e-06</v>
+        <v>1.005943338378662e-06</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.011480746359488e-06</v>
+        <v>1.012680751664255e-06</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.019508512613452e-06</v>
+        <v>1.020498831962686e-06</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.028446902064945e-06</v>
+        <v>1.029199568282434e-06</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.038094502181177e-06</v>
+        <v>1.038584949631956e-06</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.048249900429362e-06</v>
+        <v>1.048456965019711e-06</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.058711684276736e-06</v>
+        <v>1.05861760345418e-06</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.069278441190512e-06</v>
+        <v>1.06886885394382e-06</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.079748758637899e-06</v>
+        <v>1.079012705497088e-06</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.089921224086135e-06</v>
+        <v>1.088851147122467e-06</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.099594425002432e-06</v>
+        <v>1.098186167828412e-06</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.108566948854003e-06</v>
+        <v>1.106819756623383e-06</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.116637383108082e-06</v>
+        <v>1.114553902515859e-06</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.123604315231876e-06</v>
+        <v>1.121190594514293e-06</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.129266332692617e-06</v>
+        <v>1.126531821627162e-06</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.133422022957519e-06</v>
+        <v>1.130379572862924e-06</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.135882815351341e-06</v>
+        <v>1.132548700918803e-06</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.13668559880756e-06</v>
+        <v>1.133079901383086e-06</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.136059608645394e-06</v>
+        <v>1.132206543219537e-06</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.134240246971763e-06</v>
+        <v>1.130168172663182e-06</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.131462915893581e-06</v>
+        <v>1.127204335949044e-06</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.127963017517767e-06</v>
+        <v>1.123554579312147e-06</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.12397595395124e-06</v>
+        <v>1.119458448987522e-06</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.119737127300912e-06</v>
+        <v>1.115155491210187e-06</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.115481939673706e-06</v>
+        <v>1.110885252215174e-06</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.111445793176532e-06</v>
+        <v>1.106887278237499e-06</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.107864089916311e-06</v>
+        <v>1.103401115512193e-06</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.104972231999963e-06</v>
+        <v>1.100666310274283e-06</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.103005621534398e-06</v>
+        <v>1.098922408758788e-06</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.102199660626537e-06</v>
+        <v>1.098408957200737e-06</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.102788601977144e-06</v>
+        <v>1.099364279980776e-06</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.104809389849208e-06</v>
+        <v>1.101816956492594e-06</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.107879592602386e-06</v>
+        <v>1.105349756541772e-06</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.111563130432124e-06</v>
+        <v>1.109488420271957e-06</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.115423923533876e-06</v>
+        <v>1.113758687826806e-06</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.119025892103086e-06</v>
+        <v>1.117686299349964e-06</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.121932956335208e-06</v>
+        <v>1.120796994985088e-06</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.123709036425687e-06</v>
+        <v>1.122616514875824e-06</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.123918052569972e-06</v>
+        <v>1.122670599165825e-06</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.122147222700531e-06</v>
+        <v>1.120510950212821e-06</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.118717255537224e-06</v>
+        <v>1.116506647823449e-06</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.114812549192431e-06</v>
+        <v>1.111989238197155e-06</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.111667057370746e-06</v>
+        <v>1.108345490617626e-06</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.110514733776776e-06</v>
+        <v>1.106962174368564e-06</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.112589532115118e-06</v>
+        <v>1.109226058733659e-06</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.119125406090378e-06</v>
+        <v>1.116523912996614e-06</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.131204332869325e-06</v>
+        <v>1.13007380920965e-06</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.147340004248403e-06</v>
+        <v>1.148242967327813e-06</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.16390682664445e-06</v>
+        <v>1.167023954441869e-06</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.177213929371607e-06</v>
+        <v>1.182336878652135e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.183570441744023e-06</v>
+        <v>1.190101848058937e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.180407599981402e-06</v>
+        <v>1.187459497967853e-06</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.170177412911128e-06</v>
+        <v>1.177011609613342e-06</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.156735583843107e-06</v>
+        <v>1.162886777134498e-06</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.14393788151885e-06</v>
+        <v>1.149213665841045e-06</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.134984014578611e-06</v>
+        <v>1.139423395566923e-06</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.130148939934329e-06</v>
+        <v>1.133837390354549e-06</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.128892890208163e-06</v>
+        <v>1.131910831593788e-06</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.130676063522072e-06</v>
+        <v>1.13309886399272e-06</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.134958657998021e-06</v>
+        <v>1.136856632259428e-06</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.141200871757972e-06</v>
+        <v>1.142639281101994e-06</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.148862902923879e-06</v>
+        <v>1.149901955228489e-06</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.157404949617717e-06</v>
+        <v>1.158099799347011e-06</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.166287209961435e-06</v>
+        <v>1.166687958165625e-06</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.174969882077011e-06</v>
+        <v>1.175121576392428e-06</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.182913164086398e-06</v>
+        <v>1.182855798735494e-06</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.189577254111559e-06</v>
+        <v>1.189345769902902e-06</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.194422350274451e-06</v>
+        <v>1.194046634602732e-06</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.196929067947477e-06</v>
+        <v>1.196434164454275e-06</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.197071060214869e-06</v>
+        <v>1.196482231696955e-06</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.195328403319195e-06</v>
+        <v>1.194676332089382e-06</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.192204268444945e-06</v>
+        <v>1.191525293489546e-06</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.188201826776609e-06</v>
+        <v>1.187537943755444e-06</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.183824249498667e-06</v>
+        <v>1.183223110745059e-06</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.179574707795611e-06</v>
+        <v>1.179089622316386e-06</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.175956372851933e-06</v>
+        <v>1.175646306327419e-06</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.173472415852111e-06</v>
+        <v>1.173401990636143e-06</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.17262600798064e-06</v>
+        <v>1.172865503100553e-06</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.173920320422003e-06</v>
+        <v>1.174545671578639e-06</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.177858524360692e-06</v>
+        <v>1.178951323928393e-06</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.184943790981186e-06</v>
+        <v>1.1865912880078e-06</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.195581333410837e-06</v>
+        <v>1.1978684275224e-06</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.209621434766629e-06</v>
+        <v>1.212585321832195e-06</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.226719193559983e-06</v>
+        <v>1.230333413287076e-06</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.246529492585077e-06</v>
+        <v>1.250703910889157e-06</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.268707214636045e-06</v>
+        <v>1.273288023640507e-06</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.292907242507014e-06</v>
+        <v>1.297676960543186e-06</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.318784458992175e-06</v>
+        <v>1.32346193059932e-06</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.345993746885655e-06</v>
+        <v>1.350234142810971e-06</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.374190014046901e-06</v>
+        <v>1.377584832221285e-06</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.407552963149479e-06</v>
+        <v>1.409806173761811e-06</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.467409750035647e-06</v>
+        <v>1.469005326224543e-06</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.578934062167764e-06</v>
+        <v>1.581284303388113e-06</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.753417774064357e-06</v>
+        <v>1.758231275944221e-06</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.980043667317228e-06</v>
+        <v>1.988318708672705e-06</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>2.246021716686396e-06</v>
+        <v>2.257956438877188e-06</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>2.538561896931275e-06</v>
+        <v>2.553554303860682e-06</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>2.844874182811189e-06</v>
+        <v>2.861522140926109e-06</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>3.152111592460084e-06</v>
+        <v>3.168224577307146e-06</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>3.443795608830352e-06</v>
+        <v>3.457143661493057e-06</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>3.697692126617132e-06</v>
+        <v>3.707192868204317e-06</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>3.891056824823472e-06</v>
+        <v>3.89688068175514e-06</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>4.001145382451642e-06</v>
+        <v>4.004715586458971e-06</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>4.008900602168657e-06</v>
+        <v>4.012749039308873e-06</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>3.931062372879394e-06</v>
+        <v>3.937430068435161e-06</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>3.804500428203195e-06</v>
+        <v>3.814550554650287e-06</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>3.666308830172365e-06</v>
+        <v>3.680117936884801e-06</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>3.553581640818817e-06</v>
+        <v>3.570139654068871e-06</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>3.499962062538481e-06</v>
+        <v>3.517262930123354e-06</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>3.500274574762383e-06</v>
+        <v>3.516335927486321e-06</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>3.524901974996453e-06</v>
+        <v>3.538407142680389e-06</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>3.543845939037058e-06</v>
+        <v>3.554153961541579e-06</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>3.527108142680628e-06</v>
+        <v>3.534253769905973e-06</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>3.445131322931672e-06</v>
+        <v>3.449817451502623e-06</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>3.288586585400228e-06</v>
+        <v>3.291837382715229e-06</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>3.076359043986684e-06</v>
+        <v>3.079036134562621e-06</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>2.829427637527999e-06</v>
+        <v>2.832194198101992e-06</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.568771304861249e-06</v>
+        <v>2.572092064390655e-06</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.315368984822795e-06</v>
+        <v>2.319510224485207e-06</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.090199616249899e-06</v>
+        <v>2.095229169443143e-06</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.913913640578219e-06</v>
+        <v>1.919703698107634e-06</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.795692616484567e-06</v>
+        <v>1.802017664519014e-06</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.730531629618355e-06</v>
+        <v>1.73718959437366e-06</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.712546033846578e-06</v>
+        <v>1.719365794011491e-06</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.735851183036421e-06</v>
+        <v>1.742692569772617e-06</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.794562431054924e-06</v>
+        <v>1.801316227997004e-06</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.882795131769301e-06</v>
+        <v>1.889383075024792e-06</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.994664639046621e-06</v>
+        <v>2.001039417195975e-06</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.124286306753867e-06</v>
+        <v>2.130431560850459e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>2.26577548875838e-06</v>
+        <v>2.271705812328514e-06</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.413247538927025e-06</v>
+        <v>2.419008477969927e-06</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.560817811127174e-06</v>
+        <v>2.566485864114998e-06</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.702601659225805e-06</v>
+        <v>2.708284277103628e-06</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.832779776755527e-06</v>
+        <v>2.8386140102316e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.94730526121853e-06</v>
+        <v>2.953421067155335e-06</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>3.044067738045101e-06</v>
+        <v>3.050547888035661e-06</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>3.121055077845596e-06</v>
+        <v>3.127933124269584e-06</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>3.176255151230681e-06</v>
+        <v>3.183515427254421e-06</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>3.207655828810801e-06</v>
+        <v>3.215233448387266e-06</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>3.21324498119649e-06</v>
+        <v>3.2210258390653e-06</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>3.191010478998285e-06</v>
+        <v>3.198831250685713e-06</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>3.138943424918593e-06</v>
+        <v>3.146591595112623e-06</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>3.057604627453487e-06</v>
+        <v>3.064841049870903e-06</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>2.954741767055036e-06</v>
+        <v>2.961363759164765e-06</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>2.839349319930147e-06</v>
+        <v>2.845201608776933e-06</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>2.720421762285771e-06</v>
+        <v>2.725396484490174e-06</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>2.606953570328532e-06</v>
+        <v>2.610990272086929e-06</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.507939220265464e-06</v>
+        <v>2.511024857350047e-06</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.432373188303225e-06</v>
+        <v>2.434542126062003e-06</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.389249950648757e-06</v>
+        <v>2.390583964005556e-06</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.387563983508887e-06</v>
+        <v>2.388192256963351e-06</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>2.436309763090449e-06</v>
+        <v>2.436408890718036e-06</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.544481765600311e-06</v>
+        <v>2.544275751052295e-06</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>2.721074467245125e-06</v>
+        <v>2.720834723748599e-06</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.975082344232049e-06</v>
+        <v>2.97512769458992e-06</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>3.3137914529167e-06</v>
+        <v>3.314480306945221e-06</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>3.723110248934882e-06</v>
+        <v>3.724742719084081e-06</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>4.174398803991152e-06</v>
+        <v>4.177150090781602e-06</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>4.638738351894734e-06</v>
+        <v>4.642657467166503e-06</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>5.087210126456478e-06</v>
+        <v>5.092219893369123e-06</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>5.49089536148595e-06</v>
+        <v>5.496792414518522e-06</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>5.820835674221776e-06</v>
+        <v>5.827306928087411e-06</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>6.047710524353492e-06</v>
+        <v>6.054483725690149e-06</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>6.142005281344824e-06</v>
+        <v>6.148929693520852e-06</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>6.423150466816463e-06</v>
+        <v>6.430663631974959e-06</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>7.681794510199777e-06</v>
+        <v>7.691423579308625e-06</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>9.342175512835542e-06</v>
+        <v>9.354506188160603e-06</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.067557609791196e-05</v>
+        <v>1.069003109712848e-05</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.102583323276442e-05</v>
+        <v>1.10407909910268e-05</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.050161397101719e-05</v>
+        <v>1.05156599363202e-05</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>9.670090984754109e-06</v>
+        <v>9.682767753111543e-06</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>9.099820300062711e-06</v>
+        <v>9.111629377523862e-06</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>8.996688957472427e-06</v>
+        <v>9.008459797866137e-06</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>8.972515525113704e-06</v>
+        <v>8.984372275885231e-06</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>8.830101737465646e-06</v>
+        <v>8.841800524301204e-06</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>8.582401892572043e-06</v>
+        <v>8.593700669138505e-06</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>8.248951992898766e-06</v>
+        <v>8.259622124055524e-06</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>7.849288040912318e-06</v>
+        <v>7.859114302711285e-06</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>7.402946039079451e-06</v>
+        <v>7.411726618765062e-06</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>6.929461989865673e-06</v>
+        <v>6.937008485874877e-06</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>6.447730469952873e-06</v>
+        <v>6.453871270439422e-06</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>5.967446260753091e-06</v>
+        <v>5.972075000840706e-06</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>5.491420234980563e-06</v>
+        <v>5.494532055755309e-06</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>5.022297261798549e-06</v>
+        <v>5.023989684684403e-06</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>4.562722210370287e-06</v>
+        <v>4.563195137129132e-06</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>4.115339949857773e-06</v>
+        <v>4.1148956625894e-06</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.682795349424633e-06</v>
+        <v>3.681838510566744e-06</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>3.267733278232911e-06</v>
+        <v>3.266770930561114e-06</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>2.872806692272704e-06</v>
+        <v>2.872447789366762e-06</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.502961542631682e-06</v>
+        <v>2.503783814010882e-06</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>2.168578195858049e-06</v>
+        <v>2.170812616360356e-06</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.880824358035497e-06</v>
+        <v>1.884309433658612e-06</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.650867735247557e-06</v>
+        <v>1.655049503148916e-06</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.489104276982831e-06</v>
+        <v>1.493060552446628e-06</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.392958164190349e-06</v>
+        <v>1.395806086278935e-06</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.349085468038431e-06</v>
+        <v>1.350319810925993e-06</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.343816029734025e-06</v>
+        <v>1.343319452164983e-06</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.363479690484184e-06</v>
+        <v>1.361522735773195e-06</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.394406291495972e-06</v>
+        <v>1.391647387527927e-06</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.422925673976396e-06</v>
+        <v>1.420411133206422e-06</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.436616306822012e-06</v>
+        <v>1.435711762835643e-06</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.435777410845983e-06</v>
+        <v>1.437469308694601e-06</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.428136297816591e-06</v>
+        <v>1.432624009848664e-06</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.421513364177431e-06</v>
+        <v>1.428204078662568e-06</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.423729006372073e-06</v>
+        <v>1.431237727501034e-06</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.442562588393783e-06</v>
+        <v>1.448717178560774e-06</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.479491519850658e-06</v>
+        <v>1.482107116799228e-06</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.522959328564027e-06</v>
+        <v>1.521440017014052e-06</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.56038400333069e-06</v>
+        <v>1.555838642205427e-06</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.587358952408973e-06</v>
+        <v>1.58145504826472e-06</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.605458878319259e-06</v>
+        <v>1.599584057082536e-06</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.616395344326042e-06</v>
+        <v>1.611638164542874e-06</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.621879913693814e-06</v>
+        <v>1.619029866529726e-06</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.623624149687079e-06</v>
+        <v>1.623171658927102e-06</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.623339615570322e-06</v>
+        <v>1.625476037618989e-06</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.622728674421239e-06</v>
+        <v>1.627347967146401e-06</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.622871584037553e-06</v>
+        <v>1.629683151929953e-06</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.623841717582079e-06</v>
+        <v>1.632553052959277e-06</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.625620654067528e-06</v>
+        <v>1.635953987833588e-06</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.628189972506606e-06</v>
+        <v>1.639882274152098e-06</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.631531251912017e-06</v>
+        <v>1.644334229514013e-06</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.635626071296475e-06</v>
+        <v>1.649306171518555e-06</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.640456009672686e-06</v>
+        <v>1.654794417764931e-06</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.646002646053351e-06</v>
+        <v>1.66079528585235e-06</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.652247559451188e-06</v>
+        <v>1.667305093380033e-06</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.659172328878893e-06</v>
+        <v>1.67432015794718e-06</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.666758533349187e-06</v>
+        <v>1.681836797153018e-06</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.674987751874771e-06</v>
+        <v>1.689851328596751e-06</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.683841563468345e-06</v>
+        <v>1.698360069877585e-06</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.693301547142632e-06</v>
+        <v>1.707359338594747e-06</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.703349281910332e-06</v>
+        <v>1.716845452347441e-06</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.713966346784142e-06</v>
+        <v>1.726814728734871e-06</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.725134320776791e-06</v>
+        <v>1.737263485356266e-06</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.736834782900975e-06</v>
+        <v>1.748188039810831e-06</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.749049312169392e-06</v>
+        <v>1.759584709697767e-06</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.761759487594771e-06</v>
+        <v>1.771449812616307e-06</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.774946888189796e-06</v>
+        <v>1.783779666165642e-06</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.788593092967199e-06</v>
+        <v>1.796570587945005e-06</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.802679680939677e-06</v>
+        <v>1.8098188955536e-06</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.817188231119936e-06</v>
+        <v>1.823520906590636e-06</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.832100322520671e-06</v>
+        <v>1.837672938655315e-06</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.847397534154616e-06</v>
+        <v>1.852271309346874e-06</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.863075680320855e-06</v>
+        <v>1.867324488616097e-06</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.879209852844984e-06</v>
+        <v>1.882908623898362e-06</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.895902579160899e-06</v>
+        <v>1.89912328380575e-06</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.913256413214007e-06</v>
+        <v>1.916068059582639e-06</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.931373908949759e-06</v>
+        <v>1.933842542473451e-06</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.950357620313561e-06</v>
+        <v>1.952546323722563e-06</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.970310101250816e-06</v>
+        <v>1.972278994574349e-06</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.991333905706983e-06</v>
+        <v>1.993140146273236e-06</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>2.013531587627463e-06</v>
+        <v>2.015229370063599e-06</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>2.037005700957658e-06</v>
+        <v>2.038646257189808e-06</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.061858799643029e-06</v>
+        <v>2.063490398896298e-06</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.088193437628955e-06</v>
+        <v>2.089861386427415e-06</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.116112168860903e-06</v>
+        <v>2.117858811027599e-06</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.145717547284271e-06</v>
+        <v>2.147582263941218e-06</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.177112126844453e-06</v>
+        <v>2.179131336412635e-06</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.210398461486926e-06</v>
+        <v>2.2126056196863e-06</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.245679105157083e-06</v>
+        <v>2.248104705006577e-06</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>2.283056611800312e-06</v>
+        <v>2.285728183617822e-06</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.3226335353621e-06</v>
+        <v>2.325575646764495e-06</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.364512429787837e-06</v>
+        <v>2.367746685690956e-06</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.408795849022903e-06</v>
+        <v>2.412340891641555e-06</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.4555863470128e-06</v>
+        <v>2.459457855860765e-06</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.504986477702863e-06</v>
+        <v>2.509197169592892e-06</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.557098795038602e-06</v>
+        <v>2.561658424082418e-06</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.612025852965396e-06</v>
+        <v>2.61694121057369e-06</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.669870205428614e-06</v>
+        <v>2.675145120311049e-06</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.73073440637378e-06</v>
+        <v>2.736369744538989e-06</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.794721009746265e-06</v>
+        <v>2.800714674501853e-06</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.861932569491428e-06</v>
+        <v>2.86827950144397e-06</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.932471639554811e-06</v>
+        <v>2.939163816609852e-06</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>3.006440773881778e-06</v>
+        <v>3.013467211243834e-06</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>3.083942526417677e-06</v>
+        <v>3.091289276590235e-06</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>3.16507945110807e-06</v>
+        <v>3.172729603893588e-06</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>3.24995410189823e-06</v>
+        <v>3.257887784398136e-06</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>3.338669032733734e-06</v>
+        <v>3.346863409348427e-06</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>3.431551686109852e-06</v>
+        <v>3.439981114231525e-06</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>3.529992115426158e-06</v>
+        <v>3.538628881096044e-06</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>3.635693919985872e-06</v>
+        <v>3.644508454965531e-06</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>3.750360744538556e-06</v>
+        <v>3.759321626341338e-06</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>3.875696233833365e-06</v>
+        <v>3.884770185724412e-06</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>4.013404032619897e-06</v>
+        <v>4.022555923616139e-06</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>4.165187785647411e-06</v>
+        <v>4.17438063051757e-06</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>4.332751137665119e-06</v>
+        <v>4.341946096929707e-06</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>4.517797733422692e-06</v>
+        <v>4.52695411335401e-06</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>4.722031217669357e-06</v>
+        <v>4.731106470291496e-06</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>4.947155235154269e-06</v>
+        <v>4.956104958243111e-06</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>5.194696337236805e-06</v>
+        <v>5.203474304979532e-06</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>5.46301775803373e-06</v>
+        <v>5.471576468681964e-06</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>5.747754976381535e-06</v>
+        <v>5.756046124497291e-06</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>6.044454089858614e-06</v>
+        <v>6.052428581788534e-06</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>6.348661196042323e-06</v>
+        <v>6.356269149917688e-06</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>6.655922392511094e-06</v>
+        <v>6.663113138247809e-06</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>6.961783776842538e-06</v>
+        <v>6.968505856141144e-06</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>7.261791446614273e-06</v>
+        <v>7.267992612959935e-06</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>7.551491499404719e-06</v>
+        <v>7.55711871806724e-06</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>7.826430032791485e-06</v>
+        <v>7.831429480825295e-06</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>8.082153144352236e-06</v>
+        <v>8.086470210596395e-06</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>8.314206931665314e-06</v>
+        <v>8.317786216743514e-06</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>8.518137492308358e-06</v>
+        <v>8.520922808628921e-06</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>8.689490923859116e-06</v>
+        <v>8.691425295615001e-06</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>8.823813323895777e-06</v>
+        <v>8.824838987064566e-06</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>8.919071481740741e-06</v>
+        <v>8.919137356914885e-06</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>8.984400357346239e-06</v>
+        <v>8.983496526590079e-06</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>9.032153562885865e-06</v>
+        <v>9.030321205920884e-06</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>9.07468501096865e-06</v>
+        <v>9.072016406100942e-06</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>9.124348614203729e-06</v>
+        <v>9.120987138324008e-06</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>9.193498285200139e-06</v>
+        <v>9.189638413783726e-06</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>9.294487936566847e-06</v>
+        <v>9.290375243673673e-06</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>9.439671480913096e-06</v>
+        <v>9.435602639187705e-06</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>9.641393207621351e-06</v>
+        <v>9.637715938213276e-06</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>9.909016372182133e-06</v>
+        <v>9.906113931335801e-06</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.02447179466754e-05</v>
+        <v>1.024297172804678e-05</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.064961380123962e-05</v>
+        <v>1.064939781388263e-05</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.112481980601299e-05</v>
+        <v>1.112650067437955e-05</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.167145183113502e-05</v>
+        <v>1.167538879507504e-05</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.2290625746744e-05</v>
+        <v>1.229717066150533e-05</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.298345742297792e-05</v>
+        <v>1.299295475920641e-05</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.375106272997671e-05</v>
+        <v>1.376384957371619e-05</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.459366527561254e-05</v>
+        <v>1.461006050577144e-05</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.550060080315845e-05</v>
+        <v>1.552077302913027e-05</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.645392793102075e-05</v>
+        <v>1.647780722611749e-05</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.743557211657961e-05</v>
+        <v>1.74628484028792e-05</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.842745881721784e-05</v>
+        <v>1.845758186556415e-05</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.94115134903156e-05</v>
+        <v>1.944369292031848e-05</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>2.036966159325309e-05</v>
+        <v>2.040286687328834e-05</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>2.128382858341308e-05</v>
+        <v>2.131678903062245e-05</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.213593991817573e-05</v>
+        <v>2.216714469846693e-05</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.290809168801224e-05</v>
+        <v>2.293583000613408e-05</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.358480914875409e-05</v>
+        <v>2.360774240190278e-05</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.415242606973039e-05</v>
+        <v>2.417001381588383e-05</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.459731932580431e-05</v>
+        <v>2.460982943658604e-05</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.490586579183741e-05</v>
+        <v>2.491437445251663e-05</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>2.506444234269176e-05</v>
+        <v>2.507083405218333e-05</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.505942872157952e-05</v>
+        <v>2.506639599260908e-05</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>2.488185858090542e-05</v>
+        <v>2.489241545673141e-05</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>2.453688336791337e-05</v>
+        <v>2.455288965844194e-05</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.403232152087289e-05</v>
+        <v>2.405420401626925e-05</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.337599147898894e-05</v>
+        <v>2.340274394979018e-05</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.257824659787422e-05</v>
+        <v>2.260773574048223e-05</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.165936257685388e-05</v>
+        <v>2.168952556637409e-05</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.06420425302164e-05</v>
+        <v>2.067117999132832e-05</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.954898957224681e-05</v>
+        <v>1.957576557920401e-05</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.840290681723282e-05</v>
+        <v>1.842634889386299e-05</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.72264973794613e-05</v>
+        <v>1.724599649916622e-05</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.604246437322017e-05</v>
+        <v>1.605777495897568e-05</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.487351091279414e-05</v>
+        <v>1.488475083715018e-05</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.374234011247214e-05</v>
+        <v>1.374999069755274e-05</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.266900575852926e-05</v>
+        <v>1.267385884884016e-05</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.16583065244095e-05</v>
+        <v>1.166115972642766e-05</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.070959204019557e-05</v>
+        <v>1.071113986360757e-05</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>9.822205135350882e-06</v>
+        <v>9.823038857193002e-06</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>8.995488639341464e-06</v>
+        <v>8.996096303999631e-06</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>8.2287853816331e-06</v>
+        <v>8.229551800842929e-06</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>7.521438191689542e-06</v>
+        <v>7.522644944536312e-06</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>6.872789898976633e-06</v>
+        <v>6.874615331895309e-06</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>6.282178817966235e-06</v>
+        <v>6.28469838824916e-06</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>5.748505493850245e-06</v>
+        <v>5.751725075811039e-06</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>5.269873160676013e-06</v>
+        <v>5.273789706314951e-06</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>4.844300421893704e-06</v>
+        <v>4.848908399724337e-06</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>4.46980588095479e-06</v>
+        <v>4.47509727600394e-06</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>4.144408141310571e-06</v>
+        <v>4.15037245511833e-06</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>3.866125806411483e-06</v>
+        <v>3.872750057031217e-06</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>3.632977479708865e-06</v>
+        <v>3.640246201707209e-06</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>3.442981764653892e-06</v>
+        <v>3.450877009110755e-06</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.294036237572612e-06</v>
+        <v>3.302536226056416e-06</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>3.181168841932859e-06</v>
+        <v>3.19021605136674e-06</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>3.096489276302052e-06</v>
+        <v>3.10595798318257e-06</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>3.031976488854419e-06</v>
+        <v>3.041671315087738e-06</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>2.979609427764462e-06</v>
+        <v>2.989265340666349e-06</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.931367041206464e-06</v>
+        <v>2.940649353502286e-06</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.879228277354848e-06</v>
+        <v>2.887732647179577e-06</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>2.815172084384051e-06</v>
+        <v>2.82242451528226e-06</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>2.731177410468335e-06</v>
+        <v>2.736634251394201e-06</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.624202226742922e-06</v>
+        <v>2.627389094100254e-06</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.512709951149131e-06</v>
+        <v>2.513821762285022e-06</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.420968906201991e-06</v>
+        <v>2.421031844754626e-06</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.372800894978856e-06</v>
+        <v>2.373649754112993e-06</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.363200361782997e-06</v>
+        <v>2.366015953071093e-06</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.348611318731794e-06</v>
+        <v>2.352004264014552e-06</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.328352636438413e-06</v>
+        <v>2.330792657599107e-06</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.320247307965034e-06</v>
+        <v>2.321102119754792e-06</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.3421630694357e-06</v>
+        <v>2.341700891521621e-06</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.411078956839213e-06</v>
+        <v>2.41043699404375e-06</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.52344173859436e-06</v>
+        <v>2.523897957580042e-06</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.655114582172307e-06</v>
+        <v>2.6573576674721e-06</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.781061688212922e-06</v>
+        <v>2.785159158338018e-06</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.876247257356502e-06</v>
+        <v>2.881645464796325e-06</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.91564894011319e-06</v>
+        <v>2.921173388273018e-06</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.888223267578236e-06</v>
+        <v>2.892408014198341e-06</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>2.823340436298904e-06</v>
+        <v>2.825380415745226e-06</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>2.757631297826299e-06</v>
+        <v>2.757553413801983e-06</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>2.726083760339408e-06</v>
+        <v>2.724713223674627e-06</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>2.73286077987668e-06</v>
+        <v>2.73118953714579e-06</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.754734321039739e-06</v>
+        <v>2.753359841481031e-06</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>2.767523201970099e-06</v>
+        <v>2.766628948500798e-06</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>2.751829096861498e-06</v>
+        <v>2.751272759917987e-06</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>2.708500385052405e-06</v>
+        <v>2.708187392586594e-06</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.643742006434962e-06</v>
+        <v>2.643724341420577e-06</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>2.563758934998476e-06</v>
+        <v>2.56423513606008e-06</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.474756144732308e-06</v>
+        <v>2.476071306145301e-06</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.382938363823134e-06</v>
+        <v>2.385584103090555e-06</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>2.293628985649183e-06</v>
+        <v>2.298127188783101e-06</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.209289823071607e-06</v>
+        <v>2.215815180507382e-06</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.131802925571198e-06</v>
+        <v>2.140106456998285e-06</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.06305034262898e-06</v>
+        <v>2.072459396990922e-06</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.004914123725944e-06</v>
+        <v>2.014332379220376e-06</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.959276318342928e-06</v>
+        <v>1.967183782421577e-06</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.928018893473656e-06</v>
+        <v>1.932471928901046e-06</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.909177658924305e-06</v>
+        <v>1.909023657681102e-06</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.891877728711191e-06</v>
+        <v>1.889428007459255e-06</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>1.875169301477428e-06</v>
+        <v>1.872707876043639e-06</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.860131511770271e-06</v>
+        <v>1.859219354544343e-06</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.847843494136937e-06</v>
+        <v>1.849318534071423e-06</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>1.839384383124688e-06</v>
+        <v>1.843361505734974e-06</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>1.835586631117606e-06</v>
+        <v>1.841567748656885e-06</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.836113119689813e-06</v>
+        <v>1.843509036459686e-06</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.840280461399312e-06</v>
+        <v>1.848565379818256e-06</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.847405215648445e-06</v>
+        <v>1.856116759970006e-06</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.856803941839547e-06</v>
+        <v>1.865543158152332e-06</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.86779319937494e-06</v>
+        <v>1.876224555602624e-06</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.87968954765698e-06</v>
+        <v>1.887540933558303e-06</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.891809546087993e-06</v>
+        <v>1.89887227325676e-06</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.903469754070304e-06</v>
+        <v>1.909598555935387e-06</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.913986731006269e-06</v>
+        <v>1.919099762831603e-06</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.922677036298207e-06</v>
+        <v>1.926755875182794e-06</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.928858649874229e-06</v>
+        <v>1.931948196303472e-06</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.932122522048971e-06</v>
+        <v>1.934312081849921e-06</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.932655346130062e-06</v>
+        <v>1.934037342869691e-06</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.930722403073468e-06</v>
+        <v>1.931386931590035e-06</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.926588973835154e-06</v>
+        <v>1.926623800238205e-06</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.920520339371092e-06</v>
+        <v>1.920010901041462e-06</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.912781780637236e-06</v>
+        <v>1.911811186227044e-06</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.903638578589557e-06</v>
+        <v>1.902287608022212e-06</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.893356014184029e-06</v>
+        <v>1.891703118654228e-06</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.882199368376601e-06</v>
+        <v>1.880320670350325e-06</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.870433922123257e-06</v>
+        <v>1.868403215337778e-06</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.858324956379943e-06</v>
+        <v>1.856213705843818e-06</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.846137752102634e-06</v>
+        <v>1.844015094095707e-06</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.834137590247306e-06</v>
+        <v>1.832070332320709e-06</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.822589751769903e-06</v>
+        <v>1.820642372746057e-06</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.811759517626402e-06</v>
+        <v>1.809994167599013e-06</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.801912168772778e-06</v>
+        <v>1.80038866910684e-06</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.793312986164979e-06</v>
+        <v>1.792088829496773e-06</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.786227250758977e-06</v>
+        <v>1.785357600996073e-06</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.780910582898972e-06</v>
+        <v>1.780445569478894e-06</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.777574044141562e-06</v>
+        <v>1.777546282019554e-06</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.776415857587724e-06</v>
+        <v>1.776836851445833e-06</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.77763424514634e-06</v>
+        <v>1.778494389059537e-06</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.781427428726293e-06</v>
+        <v>1.782696006162473e-06</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.787993630236468e-06</v>
+        <v>1.789618814056449e-06</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.797531071585736e-06</v>
+        <v>1.79943992404326e-06</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.810237974682997e-06</v>
+        <v>1.812336447424732e-06</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.826312561437112e-06</v>
+        <v>1.828485495502648e-06</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>1.845953053756991e-06</v>
+        <v>1.848064179578842e-06</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>1.869357673551504e-06</v>
+        <v>1.871249610955109e-06</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.896724642729509e-06</v>
+        <v>1.89821890093323e-06</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.928252183199936e-06</v>
+        <v>1.929149160815059e-06</v>
       </c>
     </row>
   </sheetData>
